--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H2">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.42242465730978</v>
+        <v>0.1342866666666667</v>
       </c>
       <c r="N2">
-        <v>5.42242465730978</v>
+        <v>0.40286</v>
       </c>
       <c r="O2">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="P2">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="Q2">
-        <v>16.95692338616605</v>
+        <v>1.43916860394</v>
       </c>
       <c r="R2">
-        <v>16.95692338616605</v>
+        <v>12.95251743546</v>
       </c>
       <c r="S2">
-        <v>0.002231067498107247</v>
+        <v>0.0001665420983182164</v>
       </c>
       <c r="T2">
-        <v>0.002231067498107247</v>
+        <v>0.0001665420983182164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H3">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.218616446209675</v>
+        <v>5.524447333333334</v>
       </c>
       <c r="N3">
-        <v>0.218616446209675</v>
+        <v>16.573342</v>
       </c>
       <c r="O3">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872883</v>
       </c>
       <c r="P3">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872881</v>
       </c>
       <c r="Q3">
-        <v>0.6836540041798441</v>
+        <v>59.20625892061801</v>
       </c>
       <c r="R3">
-        <v>0.6836540041798441</v>
+        <v>532.8563302855621</v>
       </c>
       <c r="S3">
-        <v>8.995017515505747E-05</v>
+        <v>0.006851410298429788</v>
       </c>
       <c r="T3">
-        <v>8.995017515505747E-05</v>
+        <v>0.006851410298429787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1277.0726910683</v>
+        <v>10.717137</v>
       </c>
       <c r="H4">
-        <v>1277.0726910683</v>
+        <v>32.151411</v>
       </c>
       <c r="I4">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J4">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.42242465730978</v>
+        <v>0.176245</v>
       </c>
       <c r="N4">
-        <v>5.42242465730978</v>
+        <v>0.528735</v>
       </c>
       <c r="O4">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="P4">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="Q4">
-        <v>6924.830449225705</v>
+        <v>1.888841810565</v>
       </c>
       <c r="R4">
-        <v>6924.830449225705</v>
+        <v>16.999576295085</v>
       </c>
       <c r="S4">
-        <v>0.9111183552185679</v>
+        <v>0.0002185787528031627</v>
       </c>
       <c r="T4">
-        <v>0.9111183552185679</v>
+        <v>0.0002185787528031626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1277.0726910683</v>
+        <v>10.717137</v>
       </c>
       <c r="H5">
-        <v>1277.0726910683</v>
+        <v>32.151411</v>
       </c>
       <c r="I5">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J5">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.218616446209675</v>
+        <v>0.399908</v>
       </c>
       <c r="N5">
-        <v>0.218616446209675</v>
+        <v>1.199724</v>
       </c>
       <c r="O5">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="P5">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="Q5">
-        <v>279.1890932727779</v>
+        <v>4.285868823396</v>
       </c>
       <c r="R5">
-        <v>279.1890932727779</v>
+        <v>38.572819410564</v>
       </c>
       <c r="S5">
-        <v>0.03673365136125454</v>
+        <v>0.0004959652295157717</v>
       </c>
       <c r="T5">
-        <v>0.03673365136125454</v>
+        <v>0.0004959652295157716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.16229073701934</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H6">
-        <v>2.16229073701934</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I6">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J6">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.42242465730978</v>
+        <v>0.1342866666666667</v>
       </c>
       <c r="N6">
-        <v>5.42242465730978</v>
+        <v>0.40286</v>
       </c>
       <c r="O6">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="P6">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="Q6">
-        <v>11.72485860868621</v>
+        <v>173.0311402891711</v>
       </c>
       <c r="R6">
-        <v>11.72485860868621</v>
+        <v>1557.28026260254</v>
       </c>
       <c r="S6">
-        <v>0.00154267082335726</v>
+        <v>0.02002334479730884</v>
       </c>
       <c r="T6">
-        <v>0.00154267082335726</v>
+        <v>0.02002334479730884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.16229073701934</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H7">
-        <v>2.16229073701934</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I7">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J7">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.218616446209675</v>
+        <v>5.524447333333334</v>
       </c>
       <c r="N7">
-        <v>0.218616446209675</v>
+        <v>16.573342</v>
       </c>
       <c r="O7">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872883</v>
       </c>
       <c r="P7">
-        <v>0.03875462741678656</v>
+        <v>0.8860541230872881</v>
       </c>
       <c r="Q7">
-        <v>0.472712316599267</v>
+        <v>7118.364356507005</v>
       </c>
       <c r="R7">
-        <v>0.472712316599267</v>
+        <v>64065.27920856305</v>
       </c>
       <c r="S7">
-        <v>6.219601642949123E-05</v>
+        <v>0.8237445795306559</v>
       </c>
       <c r="T7">
-        <v>6.219601642949123E-05</v>
+        <v>0.8237445795306558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.414603533288968</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H8">
-        <v>0.414603533288968</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.0003077215523528999</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J8">
-        <v>0.0003077215523528999</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.42242465730978</v>
+        <v>0.176245</v>
       </c>
       <c r="N8">
-        <v>5.42242465730978</v>
+        <v>0.528735</v>
       </c>
       <c r="O8">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="P8">
-        <v>0.9612453725832134</v>
+        <v>0.02826755320505407</v>
       </c>
       <c r="Q8">
-        <v>2.248156421913856</v>
+        <v>227.0953183756017</v>
       </c>
       <c r="R8">
-        <v>2.248156421913856</v>
+        <v>2043.857865380415</v>
       </c>
       <c r="S8">
-        <v>0.000295795918243348</v>
+        <v>0.02627970811548698</v>
       </c>
       <c r="T8">
-        <v>0.000295795918243348</v>
+        <v>0.02627970811548698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.414603533288968</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H9">
-        <v>0.414603533288968</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.0003077215523528999</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J9">
-        <v>0.0003077215523528999</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.218616446209675</v>
+        <v>0.399908</v>
       </c>
       <c r="N9">
-        <v>0.218616446209675</v>
+        <v>1.199724</v>
       </c>
       <c r="O9">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="P9">
-        <v>0.03875462741678656</v>
+        <v>0.06414037656175645</v>
       </c>
       <c r="Q9">
-        <v>0.09063915103360887</v>
+        <v>515.2897079687374</v>
       </c>
       <c r="R9">
-        <v>0.09063915103360887</v>
+        <v>4637.607371718636</v>
       </c>
       <c r="S9">
-        <v>1.192563410955181E-05</v>
+        <v>0.05962986475104638</v>
       </c>
       <c r="T9">
-        <v>1.192563410955181E-05</v>
+        <v>0.05962986475104638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>64.5566556543436</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H10">
-        <v>64.5566556543436</v>
+        <v>2.926306</v>
       </c>
       <c r="I10">
-        <v>0.04791438735477562</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J10">
-        <v>0.04791438735477562</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.42242465730978</v>
+        <v>0.1342866666666667</v>
       </c>
       <c r="N10">
-        <v>5.42242465730978</v>
+        <v>0.40286</v>
       </c>
       <c r="O10">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="P10">
-        <v>0.9612453725832134</v>
+        <v>0.02153794714590123</v>
       </c>
       <c r="Q10">
-        <v>350.0536014135696</v>
+        <v>0.1309879594622222</v>
       </c>
       <c r="R10">
-        <v>350.0536014135696</v>
+        <v>1.17889163516</v>
       </c>
       <c r="S10">
-        <v>0.0460574831249377</v>
+        <v>1.515806387350112E-05</v>
       </c>
       <c r="T10">
-        <v>0.0460574831249377</v>
+        <v>1.515806387350111E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.9754353333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.926306</v>
+      </c>
+      <c r="I11">
+        <v>0.0007037840594007478</v>
+      </c>
+      <c r="J11">
+        <v>0.0007037840594007477</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.524447333333334</v>
+      </c>
+      <c r="N11">
+        <v>16.573342</v>
+      </c>
+      <c r="O11">
+        <v>0.8860541230872883</v>
+      </c>
+      <c r="P11">
+        <v>0.8860541230872881</v>
+      </c>
+      <c r="Q11">
+        <v>5.388741126072444</v>
+      </c>
+      <c r="R11">
+        <v>48.498670134652</v>
+      </c>
+      <c r="S11">
+        <v>0.0006235907675951416</v>
+      </c>
+      <c r="T11">
+        <v>0.0006235907675951415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.9754353333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.926306</v>
+      </c>
+      <c r="I12">
+        <v>0.0007037840594007478</v>
+      </c>
+      <c r="J12">
+        <v>0.0007037840594007477</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.176245</v>
+      </c>
+      <c r="N12">
+        <v>0.528735</v>
+      </c>
+      <c r="O12">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="P12">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="Q12">
+        <v>0.1719156003233333</v>
+      </c>
+      <c r="R12">
+        <v>1.54724040291</v>
+      </c>
+      <c r="S12">
+        <v>1.989425334397957E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.989425334397957E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.9754353333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.926306</v>
+      </c>
+      <c r="I13">
+        <v>0.0007037840594007478</v>
+      </c>
+      <c r="J13">
+        <v>0.0007037840594007477</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.399908</v>
+      </c>
+      <c r="N13">
+        <v>1.199724</v>
+      </c>
+      <c r="O13">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="P13">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="Q13">
+        <v>0.3900843932826666</v>
+      </c>
+      <c r="R13">
+        <v>3.510759539544</v>
+      </c>
+      <c r="S13">
+        <v>4.514097458812553E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.514097458812553E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.246702</v>
+      </c>
+      <c r="H14">
+        <v>6.740106</v>
+      </c>
+      <c r="I14">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="J14">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1342866666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.40286</v>
+      </c>
+      <c r="O14">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="P14">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="Q14">
+        <v>0.3017021225733333</v>
+      </c>
+      <c r="R14">
+        <v>2.71531910316</v>
+      </c>
+      <c r="S14">
+        <v>3.491328564482597E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.491328564482597E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.246702</v>
+      </c>
+      <c r="H15">
+        <v>6.740106</v>
+      </c>
+      <c r="I15">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="J15">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.524447333333334</v>
+      </c>
+      <c r="N15">
+        <v>16.573342</v>
+      </c>
+      <c r="O15">
+        <v>0.8860541230872883</v>
+      </c>
+      <c r="P15">
+        <v>0.8860541230872881</v>
+      </c>
+      <c r="Q15">
+        <v>12.41178687269467</v>
+      </c>
+      <c r="R15">
+        <v>111.706081854252</v>
+      </c>
+      <c r="S15">
+        <v>0.001436304977747583</v>
+      </c>
+      <c r="T15">
+        <v>0.001436304977747583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.246702</v>
+      </c>
+      <c r="H16">
+        <v>6.740106</v>
+      </c>
+      <c r="I16">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="J16">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.176245</v>
+      </c>
+      <c r="N16">
+        <v>0.528735</v>
+      </c>
+      <c r="O16">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="P16">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="Q16">
+        <v>0.3959699939899999</v>
+      </c>
+      <c r="R16">
+        <v>3.56372994591</v>
+      </c>
+      <c r="S16">
+        <v>4.582206246690427E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.582206246690427E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.246702</v>
+      </c>
+      <c r="H17">
+        <v>6.740106</v>
+      </c>
+      <c r="I17">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="J17">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.399908</v>
+      </c>
+      <c r="N17">
+        <v>1.199724</v>
+      </c>
+      <c r="O17">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="P17">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="Q17">
+        <v>0.898474103416</v>
+      </c>
+      <c r="R17">
+        <v>8.086266930743999</v>
+      </c>
+      <c r="S17">
+        <v>0.0001039723643621933</v>
+      </c>
+      <c r="T17">
+        <v>0.0001039723643621933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.335824</v>
+      </c>
+      <c r="I18">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J18">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1342866666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.40286</v>
+      </c>
+      <c r="O18">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="P18">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="Q18">
+        <v>0.05979445073777778</v>
+      </c>
+      <c r="R18">
+        <v>0.53815005664</v>
+      </c>
+      <c r="S18">
+        <v>6.919476471618401E-06</v>
+      </c>
+      <c r="T18">
+        <v>6.919476471618401E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.335824</v>
+      </c>
+      <c r="I19">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J19">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.524447333333334</v>
+      </c>
+      <c r="N19">
+        <v>16.573342</v>
+      </c>
+      <c r="O19">
+        <v>0.8860541230872883</v>
+      </c>
+      <c r="P19">
+        <v>0.8860541230872881</v>
+      </c>
+      <c r="Q19">
+        <v>2.459896444867556</v>
+      </c>
+      <c r="R19">
+        <v>22.139068003808</v>
+      </c>
+      <c r="S19">
+        <v>0.0002846617932410392</v>
+      </c>
+      <c r="T19">
+        <v>0.0002846617932410392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.335824</v>
+      </c>
+      <c r="I20">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J20">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.176245</v>
+      </c>
+      <c r="N20">
+        <v>0.528735</v>
+      </c>
+      <c r="O20">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="P20">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="Q20">
+        <v>0.07847743362666666</v>
+      </c>
+      <c r="R20">
+        <v>0.70629690264</v>
+      </c>
+      <c r="S20">
+        <v>9.081490821181439E-06</v>
+      </c>
+      <c r="T20">
+        <v>9.081490821181439E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="H11">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="I11">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="J11">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.218616446209675</v>
-      </c>
-      <c r="N11">
-        <v>0.218616446209675</v>
-      </c>
-      <c r="O11">
-        <v>0.03875462741678656</v>
-      </c>
-      <c r="P11">
-        <v>0.03875462741678656</v>
-      </c>
-      <c r="Q11">
-        <v>14.11314663833432</v>
-      </c>
-      <c r="R11">
-        <v>14.11314663833432</v>
-      </c>
-      <c r="S11">
-        <v>0.001856904229837918</v>
-      </c>
-      <c r="T11">
-        <v>0.001856904229837918</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.335824</v>
+      </c>
+      <c r="I21">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J21">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.399908</v>
+      </c>
+      <c r="N21">
+        <v>1.199724</v>
+      </c>
+      <c r="O21">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="P21">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="Q21">
+        <v>0.1780689013973333</v>
+      </c>
+      <c r="R21">
+        <v>1.602620112576</v>
+      </c>
+      <c r="S21">
+        <v>2.060631978959419E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.060631978959419E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H22">
+        <v>249.24451</v>
+      </c>
+      <c r="I22">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J22">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1342866666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.40286</v>
+      </c>
+      <c r="O22">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="P22">
+        <v>0.02153794714590123</v>
+      </c>
+      <c r="Q22">
+        <v>11.15673814428889</v>
+      </c>
+      <c r="R22">
+        <v>100.4106432986</v>
+      </c>
+      <c r="S22">
+        <v>0.00129106942428423</v>
+      </c>
+      <c r="T22">
+        <v>0.00129106942428423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H23">
+        <v>249.24451</v>
+      </c>
+      <c r="I23">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J23">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.524447333333334</v>
+      </c>
+      <c r="N23">
+        <v>16.573342</v>
+      </c>
+      <c r="O23">
+        <v>0.8860541230872883</v>
+      </c>
+      <c r="P23">
+        <v>0.8860541230872881</v>
+      </c>
+      <c r="Q23">
+        <v>458.9793895391578</v>
+      </c>
+      <c r="R23">
+        <v>4130.81450585242</v>
+      </c>
+      <c r="S23">
+        <v>0.05311357571961884</v>
+      </c>
+      <c r="T23">
+        <v>0.05311357571961883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H24">
+        <v>249.24451</v>
+      </c>
+      <c r="I24">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J24">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.176245</v>
+      </c>
+      <c r="N24">
+        <v>0.528735</v>
+      </c>
+      <c r="O24">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="P24">
+        <v>0.02826755320505407</v>
+      </c>
+      <c r="Q24">
+        <v>14.64269955498333</v>
+      </c>
+      <c r="R24">
+        <v>131.78429599485</v>
+      </c>
+      <c r="S24">
+        <v>0.001694468530131862</v>
+      </c>
+      <c r="T24">
+        <v>0.001694468530131862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H25">
+        <v>249.24451</v>
+      </c>
+      <c r="I25">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J25">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.399908</v>
+      </c>
+      <c r="N25">
+        <v>1.199724</v>
+      </c>
+      <c r="O25">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="P25">
+        <v>0.06414037656175645</v>
+      </c>
+      <c r="Q25">
+        <v>33.22495783502666</v>
+      </c>
+      <c r="R25">
+        <v>299.02462051524</v>
+      </c>
+      <c r="S25">
+        <v>0.003844826922454384</v>
+      </c>
+      <c r="T25">
+        <v>0.003844826922454384</v>
       </c>
     </row>
   </sheetData>
